--- a/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>SCPE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +746,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +781,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +901,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +936,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +987,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,8 +1018,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,16 +1033,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1072,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1103,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1138,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,25 +1173,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1208,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1243,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1278,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1313,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1488,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1523,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1593,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1628,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1702,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1733,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1768,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1803,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1838,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1656,17 +1853,17 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,26 +1873,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,20 +1908,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>173900</v>
+      </c>
+      <c r="F47" s="3">
         <v>173200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,8 +1943,14 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1978,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2013,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +2083,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +2118,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2153,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>174800</v>
+      </c>
+      <c r="F54" s="3">
         <v>174400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,19 +2222,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1992,25 +2253,31 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2288,14 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2030,17 +2303,17 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,26 +2323,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2358,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,19 +2393,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>6000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2533,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2723,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F72" s="3">
         <v>600</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2863,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>168700</v>
+      </c>
+      <c r="F76" s="3">
         <v>168300</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2933,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2973,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +3027,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +3058,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3233,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3287,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3318,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3388,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3423,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3578,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>173800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3613,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3648,31 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>SCPE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,28 +1015,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,19 +1063,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,19 +1117,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>700</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,28 +1219,31 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,28 +1333,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1319,28 +1371,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,19 +1573,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>-700</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1529,28 +1599,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,28 +1675,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,28 +1790,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,8 +1864,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,8 +1940,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1859,14 +1958,14 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,29 +1978,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1923,14 +2028,14 @@
         <v>174500</v>
       </c>
       <c r="E47" s="3">
+        <v>174500</v>
+      </c>
+      <c r="F47" s="3">
         <v>173900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>173200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,8 +2054,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1984,8 +2092,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E54" s="3">
         <v>175200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>174800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>174400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,22 +2354,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,14 +2407,14 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2294,8 +2428,11 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2309,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2329,29 +2466,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,8 +2542,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,8 +2559,8 @@
       <c r="F62" s="3">
         <v>6000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>6000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2694,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6100</v>
       </c>
       <c r="F66" s="3">
         <v>6100</v>
       </c>
       <c r="G66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,28 +2900,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>600</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,28 +3052,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E76" s="3">
         <v>169100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>168700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>168300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,28 +3171,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,28 +3453,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,28 +3827,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>173800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,28 +3903,31 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>SCPE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,22 +1151,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,31 +1262,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,22 +1643,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1877,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,13 +2039,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1961,14 +2060,14 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2031,14 +2136,14 @@
         <v>174500</v>
       </c>
       <c r="F47" s="3">
+        <v>174500</v>
+      </c>
+      <c r="G47" s="3">
         <v>173900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>173200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2162,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E54" s="3">
         <v>175000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>175200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>174800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,8 +2485,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2364,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,14 +2544,14 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2431,8 +2565,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2449,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2469,8 +2606,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2478,23 +2618,23 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2562,8 +2708,8 @@
       <c r="G62" s="3">
         <v>6000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>6000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,8 +2852,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2706,23 +2864,23 @@
         <v>6100</v>
       </c>
       <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6100</v>
       </c>
       <c r="G66" s="3">
         <v>6100</v>
       </c>
       <c r="H66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3074,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>600</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3238,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E76" s="3">
         <v>169000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>168700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4073,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,20 +4087,20 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>173800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,31 +4155,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>SCPE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,34 +1068,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1084,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,25 +1122,25 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,25 +1184,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,34 +1304,37 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1306,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,34 +1436,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1429,34 +1480,37 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,25 +1712,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1675,34 +1744,37 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,34 +1832,37 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,8 +1963,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1887,25 +1973,25 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2049,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,16 +2137,19 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2063,14 +2161,14 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2139,14 +2243,14 @@
         <v>174500</v>
       </c>
       <c r="G47" s="3">
+        <v>174500</v>
+      </c>
+      <c r="H47" s="3">
         <v>173900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>173200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2269,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,8 +2533,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2420,26 +2545,26 @@
         <v>174800</v>
       </c>
       <c r="E54" s="3">
+        <v>174800</v>
+      </c>
+      <c r="F54" s="3">
         <v>175000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>175200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>174400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,28 +2615,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2527,13 +2657,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2547,14 +2680,14 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2568,8 +2701,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2589,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>200</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,8 +2833,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2711,8 +2856,8 @@
       <c r="H62" s="3">
         <v>6000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>6000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="E66" s="3">
         <v>6100</v>
       </c>
       <c r="F66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G66" s="3">
         <v>6200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>6100</v>
       </c>
       <c r="H66" s="3">
         <v>6100</v>
       </c>
       <c r="I66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,34 +3247,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,34 +3423,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E76" s="3">
         <v>168800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>168300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,34 +3560,37 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,34 +3886,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,13 +4318,16 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -4090,20 +4335,20 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>173800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,34 +4406,37 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
